--- a/agg_data/10_payment_of_fine.xlsx
+++ b/agg_data/10_payment_of_fine.xlsx
@@ -31,10 +31,10 @@
     <t>Cash</t>
   </si>
   <si>
+    <t>Not paid</t>
+  </si>
+  <si>
     <t>Online</t>
-  </si>
-  <si>
-    <t>Unknown</t>
   </si>
   <si>
     <t>Monggar</t>
@@ -414,7 +414,7 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>284</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -425,7 +425,7 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>187</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -447,7 +447,7 @@
         <v>5</v>
       </c>
       <c r="C6">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -458,7 +458,7 @@
         <v>6</v>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -480,7 +480,7 @@
         <v>5</v>
       </c>
       <c r="C9">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="C10">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -513,7 +513,7 @@
         <v>5</v>
       </c>
       <c r="C12">
-        <v>135</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -524,7 +524,7 @@
         <v>6</v>
       </c>
       <c r="C13">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -546,7 +546,7 @@
         <v>5</v>
       </c>
       <c r="C15">
-        <v>3721</v>
+        <v>341</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -557,7 +557,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>341</v>
+        <v>3721</v>
       </c>
     </row>
   </sheetData>
